--- a/biology/Médecine/Asphyxie/Asphyxie.xlsx
+++ b/biology/Médecine/Asphyxie/Asphyxie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’asphyxie (du grec ancien ἀσφυξία, asphyxia: arrêt du pouls[1]) est un terme médical signifiant l'arrêt plus ou moins long de la circulation d'oxygène dans le corps. L'asphyxie de l'humain est une urgence médicale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’asphyxie (du grec ancien ἀσφυξία, asphyxia: arrêt du pouls) est un terme médical signifiant l'arrêt plus ou moins long de la circulation d'oxygène dans le corps. L'asphyxie de l'humain est une urgence médicale.
 Sans action extérieure, l'asphyxie mène rapidement à l'inconscience puis à la mort. Une asphyxie prolongée peut également entraîner des séquelles au cerveau.
 Les causes de l'asphyxie sont:
 une fausse route: l'étouffement par l'obstruction des voies respiratoires en une ingestion;
